--- a/medicine/Sexualité et sexologie/Esparbec/Esparbec.xlsx
+++ b/medicine/Sexualité et sexologie/Esparbec/Esparbec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Esparbec, nom de plume de Georges Pailler, né le 12 mars 1933[1] à Paris et mort le 6 juillet 2020 dans la même ville, est un écrivain pornographique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Esparbec, nom de plume de Georges Pailler, né le 12 mars 1933 à Paris et mort le 6 juillet 2020 dans la même ville, est un écrivain pornographique français.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Esparbec est l'auteur d'une centaine de romans de gare sous le label Media 1000 et de 11 romans pornographiques aux éditions La Musardine. Il a aussi utilisé d'autres pseudonymes comme John Jensen, Victoria Queen, Georges Péridol.
 Il est considéré par Jean-Jacques Pauvert et Georges Wolinski comme le plus grand écrivain pornographique français[n 1].
-Esparbec meurt le 6 juillet 2020, à l'âge de 87 ans[2].
+Esparbec meurt le 6 juillet 2020, à l'âge de 87 ans.
 </t>
         </is>
       </c>
